--- a/Configs/coldjoke.xlsx
+++ b/Configs/coldjoke.xlsx
@@ -1,66 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CIGAGJ-25\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983FB05E-6703-4E92-96CB-79F00E95A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1110" windowWidth="16120" windowHeight="11690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16680" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>可口可乐放着不喝会怎么样？</t>
+  </si>
+  <si>
+    <t>会变成摆饰可乐</t>
+  </si>
+  <si>
+    <t>公鹿跑起来会变成什么？</t>
+  </si>
+  <si>
+    <t>高速公路</t>
+  </si>
+  <si>
+    <t>人死后会变成星星，商鞅死后会变成什么？</t>
+  </si>
+  <si>
+    <t>五星上将</t>
+  </si>
+  <si>
+    <t>世界上最内卷的地方在哪里？</t>
+  </si>
+  <si>
+    <t>木乃伊博物馆，因为有的是人干</t>
+  </si>
+  <si>
+    <t>鸽子怎么说话？</t>
+  </si>
+  <si>
+    <t>“在路上了”</t>
+  </si>
+  <si>
+    <t>什么动物喜欢贴在墙上？</t>
+  </si>
+  <si>
+    <t>海豹</t>
+  </si>
+  <si>
+    <t>超人为什么要穿紧身衣</t>
+  </si>
+  <si>
+    <t>因为救人要紧</t>
+  </si>
+  <si>
+    <t>猫会喵喵喵，狗会汪汪汪，鸭会嘎嘎嘎，鸡会什么</t>
+  </si>
+  <si>
+    <t>鸡会留给又准备的人</t>
+  </si>
+  <si>
+    <t>旺旺雪饼觉得热了会变成什么？</t>
+  </si>
+  <si>
+    <t>旺旺掀被</t>
+  </si>
+  <si>
+    <t>愚公移山会唱什么歌？</t>
+  </si>
+  <si>
+    <t>小星星，移山移山亮晶晶</t>
+  </si>
+  <si>
+    <t>一朵花为什么好笑？</t>
+  </si>
+  <si>
+    <t>因为它有梗</t>
+  </si>
+  <si>
+    <t>淄博有烧烤，云南有泼水节，深圳有什么？</t>
+  </si>
+  <si>
+    <t>深圳不怕影子斜</t>
+  </si>
+  <si>
+    <t>打电话叫彩虹来，为什么只到了五种颜色？</t>
+  </si>
+  <si>
+    <t>因为青黄不接</t>
+  </si>
+  <si>
+    <t>牛排煎得太熟怎么办？</t>
+  </si>
+  <si>
+    <t>放点起司就好了，起司回生</t>
+  </si>
+  <si>
+    <t>一个0去一个全是1的地方，第一句话会说什么？</t>
+  </si>
+  <si>
+    <t>Hello everyone</t>
+  </si>
+  <si>
+    <t>恐怖分子楼下住着谁？</t>
+  </si>
+  <si>
+    <t>恐怖分母</t>
+  </si>
+  <si>
+    <t>什么东西吃进嘴里凉凉的，还咯牙？</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>投资和投机有什么区别？</t>
+  </si>
+  <si>
+    <t>一个是普通话，一个是广东话</t>
+  </si>
+  <si>
+    <t>什么东西最提神？</t>
+  </si>
+  <si>
+    <t>十字架</t>
+  </si>
+  <si>
+    <t>女娲用什么补天？</t>
+  </si>
+  <si>
+    <t>强扭的瓜</t>
+  </si>
+  <si>
+    <t>为什么阿姨不流汗</t>
+  </si>
+  <si>
+    <t>因为阿姨怕留下遗憾</t>
+  </si>
+  <si>
+    <t>什么东西最不寂寞？</t>
+  </si>
+  <si>
+    <t>游标卡尺，游标卡尺不估读</t>
+  </si>
+  <si>
+    <t>积德行善的反义词是什么？</t>
+  </si>
+  <si>
+    <t>柯南行凶</t>
+  </si>
+  <si>
+    <t>M和N吵架，最后是谁道歉？</t>
+  </si>
+  <si>
+    <t>M，M sorry</t>
+  </si>
+  <si>
+    <t>晴天为什么让人心情好？</t>
+  </si>
+  <si>
+    <t>因为人在无雨的时候会笑</t>
+  </si>
+  <si>
+    <t>花生到日本会变成什么？</t>
+  </si>
+  <si>
+    <t>花生酱</t>
+  </si>
+  <si>
+    <t>什么东西和灯泡一样，但是不会亮？</t>
+  </si>
+  <si>
+    <t>坏灯泡</t>
+  </si>
+  <si>
+    <t>可乐和咖啡谁更长寿？</t>
+  </si>
+  <si>
+    <t>咖啡，因为可乐会没气</t>
+  </si>
+  <si>
+    <t>米的妈妈是谁？</t>
+  </si>
+  <si>
+    <t>是花，因为花生米</t>
+  </si>
+  <si>
+    <t>湖南的鬼是什么？</t>
+  </si>
+  <si>
+    <t>湘飘飘</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -68,19 +246,348 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -88,33 +595,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -160,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -195,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -369,83 +1169,490 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="5" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.6" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" ht="15.6" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:3">
+      <c r="A4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:3">
+      <c r="A5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:3">
+      <c r="A7" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:3">
+      <c r="A8" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:3">
+      <c r="A9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:3">
+      <c r="A10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:3">
+      <c r="A11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:3">
+      <c r="A12" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:3">
+      <c r="A13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:3">
+      <c r="A14" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:3">
+      <c r="A15" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:3">
+      <c r="A16" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:3">
+      <c r="A17" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:3">
+      <c r="A18" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:3">
+      <c r="A19" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:3">
+      <c r="A20" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:3">
+      <c r="A21" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:3">
+      <c r="A22" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:3">
+      <c r="A23" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:3">
+      <c r="A24" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:3">
+      <c r="A25" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:3">
+      <c r="A26" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:3">
+      <c r="A27" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:3">
+      <c r="A28" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:3">
+      <c r="A29" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:3">
+      <c r="A30" s="2">
+        <v>1027</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:3">
+      <c r="A31" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:3">
+      <c r="A32" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:3">
+      <c r="A33" s="2">
+        <v>1030</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" ht="15.6" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" ht="15.6" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" ht="15.6" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" ht="15.6" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" ht="15.6" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" ht="15.6" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" ht="15.6" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" ht="15.6" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" ht="15.6" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" ht="15.6" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" ht="15.6" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" ht="15.6" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" ht="15.6" spans="1:3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Configs/coldjoke.xlsx
+++ b/Configs/coldjoke.xlsx
@@ -1175,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1551,106 +1551,6 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" ht="15.6" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" ht="15.6" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" ht="15.6" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" ht="15.6" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" ht="15.6" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" ht="15.6" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" ht="15.6" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" ht="15.6" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" ht="15.6" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" ht="15.6" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" ht="15.6" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" ht="15.6" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" ht="15.6" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" ht="15.6" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" ht="15.6" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" ht="15.6" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" ht="15.6" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" ht="15.6" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
